--- a/files/CPI_by_Region_DOL.xlsx
+++ b/files/CPI_by_Region_DOL.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilniraula/Dropbox/My Mac (Anils-MacBook-Pro.local)/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F553DC94-1F03-0B4E-84A7-50809B91A472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F8A19-04A8-BF40-8D17-E586F2D5781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLS Data Series" sheetId="1" r:id="rId1"/>
     <sheet name="Regions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>Northeast</t>
   </si>
@@ -201,6 +200,12 @@
   </si>
   <si>
     <t>Washington</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>region</t>
   </si>
 </sst>
 </file>
@@ -208,9 +213,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -258,6 +263,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -284,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,15 +311,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -1003,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B58E984-3855-F843-93E3-173BDE1935A2}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1014,32 +1028,29 @@
     <col min="1" max="4" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -1048,9 +1059,9 @@
       <c r="F5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -1059,9 +1070,9 @@
       <c r="F6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -1070,9 +1081,9 @@
       <c r="F7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -1081,9 +1092,9 @@
       <c r="F8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -1092,9 +1103,9 @@
       <c r="F9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -1103,9 +1114,9 @@
       <c r="F10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
@@ -1114,20 +1125,20 @@
       <c r="F11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
@@ -1136,21 +1147,20 @@
       <c r="F13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
@@ -1160,9 +1170,9 @@
       <c r="G15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -1171,11 +1181,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -1188,7 +1197,7 @@
     </row>
     <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
@@ -1201,28 +1210,33 @@
     </row>
     <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
@@ -1230,7 +1244,7 @@
     </row>
     <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -1238,7 +1252,7 @@
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -1246,15 +1260,15 @@
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
@@ -1262,7 +1276,7 @@
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
@@ -1270,7 +1284,7 @@
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
@@ -1278,7 +1292,7 @@
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
@@ -1286,7 +1300,7 @@
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
@@ -1294,7 +1308,7 @@
     </row>
     <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>8</v>
@@ -1302,7 +1316,7 @@
     </row>
     <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>8</v>
@@ -1310,7 +1324,7 @@
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>8</v>
@@ -1318,7 +1332,7 @@
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>8</v>
@@ -1326,7 +1340,7 @@
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>8</v>
@@ -1334,7 +1348,7 @@
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>8</v>
@@ -1342,7 +1356,7 @@
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>8</v>
@@ -1350,7 +1364,7 @@
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>8</v>
@@ -1358,7 +1372,7 @@
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>8</v>
@@ -1366,7 +1380,7 @@
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>8</v>
@@ -1374,7 +1388,7 @@
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>8</v>
@@ -1382,15 +1396,15 @@
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>9</v>
@@ -1398,7 +1412,7 @@
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>9</v>
@@ -1406,7 +1420,7 @@
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>9</v>
@@ -1414,7 +1428,7 @@
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>9</v>
@@ -1422,7 +1436,7 @@
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -1430,7 +1444,7 @@
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>9</v>
@@ -1438,7 +1452,7 @@
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
@@ -1446,7 +1460,7 @@
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>9</v>
@@ -1454,7 +1468,7 @@
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>9</v>
@@ -1462,7 +1476,7 @@
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>9</v>
@@ -1470,7 +1484,7 @@
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>9</v>
@@ -1478,9 +1492,17 @@
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/files/CPI_by_Region_DOL.xlsx
+++ b/files/CPI_by_Region_DOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilniraula/Dropbox/My Mac (Anils-MacBook-Pro.local)/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F8A19-04A8-BF40-8D17-E586F2D5781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078ED9D-2086-BE4E-B155-6FD1B2BE2A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLS Data Series" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="59">
   <si>
     <t>Northeast</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>region</t>
+  </si>
+  <si>
+    <t>cpi</t>
   </si>
 </sst>
 </file>
@@ -635,373 +638,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="1" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2001</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
         <v>184.4</v>
       </c>
-      <c r="C2" s="7">
-        <v>172.8</v>
-      </c>
-      <c r="D2" s="8">
-        <v>171.1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>181.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2002</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
         <v>188.2</v>
       </c>
-      <c r="C3" s="7">
-        <v>174.9</v>
-      </c>
-      <c r="D3" s="8">
-        <v>173.3</v>
-      </c>
-      <c r="E3" s="9">
-        <v>184.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2003</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
         <v>193.5</v>
       </c>
-      <c r="C4" s="7">
-        <v>178.3</v>
-      </c>
-      <c r="D4" s="8">
-        <v>177.3</v>
-      </c>
-      <c r="E4" s="9">
-        <v>188.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2004</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
         <v>200.2</v>
       </c>
-      <c r="C5" s="7">
-        <v>182.6</v>
-      </c>
-      <c r="D5" s="8">
-        <v>181.8</v>
-      </c>
-      <c r="E5" s="9">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2005</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
         <v>207.5</v>
       </c>
-      <c r="C6" s="7">
-        <v>188.4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>188.3</v>
-      </c>
-      <c r="E6" s="9">
-        <v>198.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2006</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
         <v>215</v>
       </c>
-      <c r="C7" s="7">
-        <v>193</v>
-      </c>
-      <c r="D7" s="8">
-        <v>194.7</v>
-      </c>
-      <c r="E7" s="9">
-        <v>205.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2007</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
         <v>220.512</v>
       </c>
-      <c r="C8" s="7">
-        <v>198.12299999999999</v>
-      </c>
-      <c r="D8" s="8">
-        <v>200.36099999999999</v>
-      </c>
-      <c r="E8" s="9">
-        <v>212.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2008</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
         <v>229.30600000000001</v>
       </c>
-      <c r="C9" s="7">
-        <v>205.38200000000001</v>
-      </c>
-      <c r="D9" s="8">
-        <v>208.68100000000001</v>
-      </c>
-      <c r="E9" s="9">
-        <v>219.64599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2009</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
         <v>229.34299999999999</v>
       </c>
-      <c r="C10" s="7">
-        <v>204.06399999999999</v>
-      </c>
-      <c r="D10" s="8">
-        <v>207.845</v>
-      </c>
-      <c r="E10" s="9">
-        <v>218.822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2010</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
         <v>233.86799999999999</v>
       </c>
-      <c r="C11" s="7">
-        <v>208.04599999999999</v>
-      </c>
-      <c r="D11" s="8">
-        <v>211.33799999999999</v>
-      </c>
-      <c r="E11" s="9">
-        <v>221.203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2011</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
         <v>240.99700000000001</v>
       </c>
-      <c r="C12" s="7">
-        <v>214.74299999999999</v>
-      </c>
-      <c r="D12" s="8">
-        <v>218.61799999999999</v>
-      </c>
-      <c r="E12" s="9">
-        <v>227.48500000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2012</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
         <v>245.69800000000001</v>
       </c>
-      <c r="C13" s="7">
-        <v>219.1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>223.24199999999999</v>
-      </c>
-      <c r="E13" s="9">
-        <v>232.376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2013</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
         <v>249.03800000000001</v>
       </c>
-      <c r="C14" s="7">
-        <v>222.17</v>
-      </c>
-      <c r="D14" s="8">
-        <v>226.721</v>
-      </c>
-      <c r="E14" s="9">
-        <v>235.82400000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
         <v>252.46299999999999</v>
       </c>
-      <c r="C15" s="7">
-        <v>225.42500000000001</v>
-      </c>
-      <c r="D15" s="8">
-        <v>230.55199999999999</v>
-      </c>
-      <c r="E15" s="9">
-        <v>240.215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
         <v>252.185</v>
       </c>
-      <c r="C16" s="7">
-        <v>224.21</v>
-      </c>
-      <c r="D16" s="8">
-        <v>230.14699999999999</v>
-      </c>
-      <c r="E16" s="9">
-        <v>243.01499999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2016</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
         <v>254.85</v>
       </c>
-      <c r="C17" s="7">
-        <v>226.11500000000001</v>
-      </c>
-      <c r="D17" s="8">
-        <v>232.69200000000001</v>
-      </c>
-      <c r="E17" s="9">
-        <v>247.70500000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2017</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
         <v>259.53800000000001</v>
       </c>
-      <c r="C18" s="7">
-        <v>229.874</v>
-      </c>
-      <c r="D18" s="8">
-        <v>237.45599999999999</v>
-      </c>
-      <c r="E18" s="9">
-        <v>254.738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2018</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
         <v>265.13900000000001</v>
       </c>
-      <c r="C19" s="7">
-        <v>234.29</v>
-      </c>
-      <c r="D19" s="8">
-        <v>242.73699999999999</v>
-      </c>
-      <c r="E19" s="9">
-        <v>263.26299999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2019</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
         <v>269.392</v>
       </c>
-      <c r="C20" s="7">
-        <v>237.77600000000001</v>
-      </c>
-      <c r="D20" s="8">
-        <v>246.26499999999999</v>
-      </c>
-      <c r="E20" s="9">
-        <v>270.35000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2020</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
         <v>272.90800000000002</v>
       </c>
-      <c r="C21" s="7">
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>174.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>178.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>182.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>188.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>198.12299999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>205.38200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>204.06399999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>208.04599999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>214.74299999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7">
+        <v>219.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>222.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="7">
+        <v>225.42500000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>224.21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>226.11500000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="7">
+        <v>229.874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="7">
+        <v>234.29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7">
+        <v>237.77600000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7">
         <v>240.04</v>
       </c>
-      <c r="D21" s="8">
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="8">
+        <v>171.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="8">
+        <v>173.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="8">
+        <v>177.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="8">
+        <v>181.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="8">
+        <v>188.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="8">
+        <v>194.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="8">
+        <v>200.36099999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="8">
+        <v>208.68100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="8">
+        <v>207.845</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="8">
+        <v>211.33799999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="8">
+        <v>218.61799999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="8">
+        <v>223.24199999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="8">
+        <v>226.721</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="8">
+        <v>230.55199999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="8">
+        <v>230.14699999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="8">
+        <v>232.69200000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="8">
+        <v>237.45599999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="8">
+        <v>242.73699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="8">
+        <v>246.26499999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="8">
         <v>248.63900000000001</v>
       </c>
-      <c r="E21" s="9">
+    </row>
+    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>2001</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="9">
+        <v>181.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="9">
+        <v>184.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="9">
+        <v>188.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="9">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="9">
+        <v>198.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>2006</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="9">
+        <v>205.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>2007</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="9">
+        <v>212.23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="9">
+        <v>219.64599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="9">
+        <v>218.822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="9">
+        <v>221.203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="9">
+        <v>227.48500000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="9">
+        <v>232.376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="9">
+        <v>235.82400000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="9">
+        <v>240.215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="9">
+        <v>243.01499999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="9">
+        <v>247.70500000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="9">
+        <v>254.738</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="9">
+        <v>263.26299999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="9">
+        <v>270.35000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="9">
         <v>275.05700000000002</v>
       </c>
     </row>
@@ -1019,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B58E984-3855-F843-93E3-173BDE1935A2}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="114" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/files/CPI_by_Region_DOL.xlsx
+++ b/files/CPI_by_Region_DOL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilniraula/Dropbox/My Mac (Anils-MacBook-Pro.local)/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078ED9D-2086-BE4E-B155-6FD1B2BE2A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD79B75-C2D3-1F45-826F-45A1E99009C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLS Data Series" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="59">
   <si>
     <t>Northeast</t>
   </si>
@@ -638,11 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,881 +664,925 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7">
-        <v>184.4</v>
+        <v>179.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7">
-        <v>188.2</v>
+        <v>184.4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>193.5</v>
+        <v>188.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7">
-        <v>200.2</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>207.5</v>
+        <v>200.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7">
-        <v>215</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="7">
-        <v>220.512</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <v>229.30600000000001</v>
+        <v>220.512</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="7">
-        <v>229.34299999999999</v>
+        <v>229.30600000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="7">
-        <v>233.86799999999999</v>
+        <v>229.34299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="7">
-        <v>240.99700000000001</v>
+        <v>233.86799999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="7">
-        <v>245.69800000000001</v>
+        <v>240.99700000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>249.03800000000001</v>
+        <v>245.69800000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="7">
-        <v>252.46299999999999</v>
+        <v>249.03800000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="7">
-        <v>252.185</v>
+        <v>252.46299999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="7">
-        <v>254.85</v>
+        <v>252.185</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="7">
-        <v>259.53800000000001</v>
+        <v>254.85</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="7">
-        <v>265.13900000000001</v>
+        <v>259.53800000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="7">
-        <v>269.392</v>
+        <v>265.13900000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="7">
-        <v>272.90800000000002</v>
+        <v>269.392</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" s="7">
-        <v>172.8</v>
+        <v>272.90800000000002</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="7">
-        <v>174.9</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="7">
-        <v>178.3</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>182.6</v>
+        <v>174.9</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="7">
-        <v>188.4</v>
+        <v>178.3</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="7">
-        <v>193</v>
+        <v>182.6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="7">
-        <v>198.12299999999999</v>
+        <v>188.4</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="7">
-        <v>205.38200000000001</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="7">
-        <v>204.06399999999999</v>
+        <v>198.12299999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="7">
-        <v>208.04599999999999</v>
+        <v>205.38200000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="7">
-        <v>214.74299999999999</v>
+        <v>204.06399999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="7">
-        <v>219.1</v>
+        <v>208.04599999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="7">
-        <v>222.17</v>
+        <v>214.74299999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="7">
-        <v>225.42500000000001</v>
+        <v>219.1</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="7">
-        <v>224.21</v>
+        <v>222.17</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="7">
-        <v>226.11500000000001</v>
+        <v>225.42500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="7">
-        <v>229.874</v>
+        <v>224.21</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="7">
-        <v>234.29</v>
+        <v>226.11500000000001</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="7">
-        <v>237.77600000000001</v>
+        <v>229.874</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7">
+        <v>234.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7">
+        <v>237.77600000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <v>2020</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7">
         <v>240.04</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="8">
-        <v>171.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="8">
-        <v>173.3</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="8">
-        <v>177.3</v>
+      <c r="C44" s="7">
+        <v>167.2</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="8">
-        <v>181.8</v>
+        <v>171.1</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="8">
-        <v>188.3</v>
+        <v>173.3</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="8">
-        <v>194.7</v>
+        <v>177.3</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="8">
-        <v>200.36099999999999</v>
+        <v>181.8</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="8">
-        <v>208.68100000000001</v>
+        <v>188.3</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="8">
-        <v>207.845</v>
+        <v>194.7</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="8">
-        <v>211.33799999999999</v>
+        <v>200.36099999999999</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="8">
-        <v>218.61799999999999</v>
+        <v>208.68100000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="8">
-        <v>223.24199999999999</v>
+        <v>207.845</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="8">
-        <v>226.721</v>
+        <v>211.33799999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="8">
-        <v>230.55199999999999</v>
+        <v>218.61799999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="8">
-        <v>230.14699999999999</v>
+        <v>223.24199999999999</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="8">
-        <v>232.69200000000001</v>
+        <v>226.721</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="8">
-        <v>237.45599999999999</v>
+        <v>230.55199999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="8">
-        <v>242.73699999999999</v>
+        <v>230.14699999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="8">
-        <v>246.26499999999999</v>
+        <v>232.69200000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="8">
-        <v>248.63900000000001</v>
+        <v>237.45599999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="9">
-        <v>181.2</v>
+        <v>8</v>
+      </c>
+      <c r="C62" s="8">
+        <v>242.73699999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="9">
-        <v>184.7</v>
+        <v>8</v>
+      </c>
+      <c r="C63" s="8">
+        <v>246.26499999999999</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="9">
-        <v>188.6</v>
+        <v>8</v>
+      </c>
+      <c r="C64" s="8">
+        <v>248.63900000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="9">
-        <v>193</v>
+      <c r="C65" s="7">
+        <v>174.8</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="9">
-        <v>198.9</v>
+        <v>181.2</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="9">
-        <v>205.7</v>
+        <v>184.7</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="9">
-        <v>212.23</v>
+        <v>188.6</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="9">
-        <v>219.64599999999999</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="9">
-        <v>218.822</v>
+        <v>198.9</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="9">
-        <v>221.203</v>
+        <v>205.7</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="9">
-        <v>227.48500000000001</v>
+        <v>212.23</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="9">
-        <v>232.376</v>
+        <v>219.64599999999999</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="9">
-        <v>235.82400000000001</v>
+        <v>218.822</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="9">
-        <v>240.215</v>
+        <v>221.203</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="9">
-        <v>243.01499999999999</v>
+        <v>227.48500000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="9">
-        <v>247.70500000000001</v>
+        <v>232.376</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="9">
-        <v>254.738</v>
+        <v>235.82400000000001</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="9">
-        <v>263.26299999999998</v>
+        <v>240.215</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="9">
-        <v>270.35000000000002</v>
+        <v>243.01499999999999</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="9">
+        <v>247.70500000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="9">
+        <v>254.738</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="9">
+        <v>263.26299999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="9">
+        <v>270.35000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
         <v>2020</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="9">
+      <c r="B85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="9">
         <v>275.05700000000002</v>
       </c>
     </row>
@@ -1556,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B58E984-3855-F843-93E3-173BDE1935A2}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="114" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="114" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/files/CPI_by_Region_DOL.xlsx
+++ b/files/CPI_by_Region_DOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilniraula/Dropbox/My Mac (Anils-MacBook-Pro.local)/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD79B75-C2D3-1F45-826F-45A1E99009C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE808CB2-E489-0C41-BB31-DEE540692846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLS Data Series" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="59">
   <si>
     <t>Northeast</t>
   </si>
@@ -218,10 +218,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +292,12 @@
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -300,30 +313,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -894,697 +923,747 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7">
-        <v>168.3</v>
+      <c r="A23" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <f>279.488</f>
+        <v>279.488</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="7">
-        <v>172.8</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7">
-        <v>174.9</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="7">
-        <v>178.3</v>
+        <v>174.9</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="7">
-        <v>182.6</v>
+        <v>178.3</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="7">
-        <v>188.4</v>
+        <v>182.6</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="7">
-        <v>193</v>
+        <v>188.4</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="7">
-        <v>198.12299999999999</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="7">
-        <v>205.38200000000001</v>
+        <v>198.12299999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="7">
-        <v>204.06399999999999</v>
+        <v>205.38200000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="7">
-        <v>208.04599999999999</v>
+        <v>204.06399999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="7">
-        <v>214.74299999999999</v>
+        <v>208.04599999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="7">
-        <v>219.1</v>
+        <v>214.74299999999999</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="7">
-        <v>222.17</v>
+        <v>219.1</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="7">
-        <v>225.42500000000001</v>
+        <v>222.17</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="7">
-        <v>224.21</v>
+        <v>225.42500000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="7">
-        <v>226.11500000000001</v>
+        <v>224.21</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="7">
-        <v>229.874</v>
+        <v>226.11500000000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="7">
-        <v>234.29</v>
+        <v>229.874</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="7">
-        <v>237.77600000000001</v>
+        <v>234.29</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7">
+        <v>237.77600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <v>2020</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="7">
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7">
         <v>240.04</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="7">
-        <v>167.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="8">
-        <v>171.1</v>
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="15">
+        <f>247.511</f>
+        <v>247.511</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="8">
-        <v>173.3</v>
+      <c r="C46" s="7">
+        <v>167.2</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="8">
-        <v>177.3</v>
+        <v>171.1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="8">
-        <v>181.8</v>
+        <v>173.3</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="8">
-        <v>188.3</v>
+        <v>177.3</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="8">
-        <v>194.7</v>
+        <v>181.8</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="8">
-        <v>200.36099999999999</v>
+        <v>188.3</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="8">
-        <v>208.68100000000001</v>
+        <v>194.7</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="8">
-        <v>207.845</v>
+        <v>200.36099999999999</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="8">
-        <v>211.33799999999999</v>
+        <v>208.68100000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="8">
-        <v>218.61799999999999</v>
+        <v>207.845</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="8">
-        <v>223.24199999999999</v>
+        <v>211.33799999999999</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="8">
-        <v>226.721</v>
+        <v>218.61799999999999</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="8">
-        <v>230.55199999999999</v>
+        <v>223.24199999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="8">
-        <v>230.14699999999999</v>
+        <v>226.721</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="8">
-        <v>232.69200000000001</v>
+        <v>230.55199999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="8">
-        <v>237.45599999999999</v>
+        <v>230.14699999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="8">
-        <v>242.73699999999999</v>
+        <v>232.69200000000001</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="8">
-        <v>246.26499999999999</v>
+        <v>237.45599999999999</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="8">
-        <v>248.63900000000001</v>
+        <v>242.73699999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="7">
-        <v>174.8</v>
+        <v>8</v>
+      </c>
+      <c r="C65" s="8">
+        <v>246.26499999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="9">
-        <v>181.2</v>
+        <v>8</v>
+      </c>
+      <c r="C66" s="8">
+        <v>248.63900000000001</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="9">
-        <v>184.7</v>
+      <c r="A67" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16">
+        <f>256.498</f>
+        <v>256.49799999999999</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="9">
-        <v>188.6</v>
+      <c r="C68" s="7">
+        <v>174.8</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="9">
-        <v>193</v>
+        <v>181.2</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="9">
-        <v>198.9</v>
+        <v>184.7</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="9">
-        <v>205.7</v>
+        <v>188.6</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="9">
-        <v>212.23</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="9">
-        <v>219.64599999999999</v>
+        <v>198.9</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="9">
-        <v>218.822</v>
+        <v>205.7</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="9">
-        <v>221.203</v>
+        <v>212.23</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="9">
-        <v>227.48500000000001</v>
+        <v>219.64599999999999</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="9">
-        <v>232.376</v>
+        <v>218.822</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="9">
-        <v>235.82400000000001</v>
+        <v>221.203</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="9">
-        <v>240.215</v>
+        <v>227.48500000000001</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="9">
+        <v>232.376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="9">
+        <v>235.82400000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="9">
+        <v>240.215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
         <v>2015</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="9">
+      <c r="B83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="9">
         <v>243.01499999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
         <v>2016</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="9">
+      <c r="B84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="9">
         <v>247.70500000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
         <v>2017</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="9">
+      <c r="B85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="9">
         <v>254.738</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
         <v>2018</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="9">
+      <c r="B86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="9">
         <v>263.26299999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
         <v>2019</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="9">
+      <c r="B87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="9">
         <v>270.35000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
         <v>2020</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="9">
+      <c r="B88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="9">
         <v>275.05700000000002</v>
       </c>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="13">
+        <f>282.355</f>
+        <v>282.35500000000002</v>
+      </c>
+      <c r="D89" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B58E984-3855-F843-93E3-173BDE1935A2}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="114" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/files/CPI_by_Region_DOL.xlsx
+++ b/files/CPI_by_Region_DOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilniraula/Dropbox/My Mac (Anils-MacBook-Pro.local)/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE808CB2-E489-0C41-BB31-DEE540692846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9BB6CE-04D5-DA48-A797-ECEDDD1C8421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,8 +670,8 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>8</v>
